--- a/benchmark/runtime.xlsx
+++ b/benchmark/runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\libMultiRobotPlanning\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18873BAE-CCFD-4A2F-9B99-06E1C0615D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EBA7F4-8C23-4C03-BF06-6793A77D1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="2005">
   <si>
     <t>map_8by8_obst12_agents10_ex0.yaml</t>
   </si>
@@ -5438,9 +5438,6 @@
   </si>
   <si>
     <t>map_8by8_obst12_agents8_ex12.yaml</t>
-  </si>
-  <si>
-    <t>map_8by8_obst12_agents8_ex13.yaml</t>
   </si>
   <si>
     <t>map_8by8_obst12_agents8_ex14.yaml</t>
@@ -6033,7 +6030,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lib-mine</t>
+    <t>map_8by8_obst12_agents8_ex13.yaml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib-mine-d_ary_heap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib-mine-fibonacci_heap</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6443,101 +6448,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2002"/>
+  <dimension ref="A1:D2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1612" workbookViewId="0">
-      <selection activeCell="B1627" sqref="B1627"/>
+    <sheetView tabSelected="1" topLeftCell="A1795" workbookViewId="0">
+      <selection activeCell="C1809" sqref="C1809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.109375" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1" t="s">
         <v>2001</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2002</v>
       </c>
       <c r="C1" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -14951,82 +14960,85 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="1703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="1704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1703">
+        <v>2.9130900000000001E-2</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="1705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="1709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="1711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
         <v>1710</v>
       </c>
@@ -15431,1054 +15443,1108 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="1801" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="1802" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="1803" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="1804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1803">
+        <v>659.81</v>
+      </c>
+      <c r="C1803">
+        <v>662.077</v>
+      </c>
+      <c r="D1803">
+        <v>456.01100000000002</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="1805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1804">
+        <v>369.29199999999997</v>
+      </c>
+      <c r="C1804">
+        <v>368.40300000000002</v>
+      </c>
+      <c r="D1804">
+        <v>591.76599999999996</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1805">
+        <v>0.277785</v>
+      </c>
+      <c r="C1805">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D1805">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1806">
+        <v>15.747</v>
+      </c>
+      <c r="C1806">
+        <v>15.744</v>
+      </c>
+      <c r="D1806">
+        <v>15.706300000000001</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1807">
+        <v>65.029700000000005</v>
+      </c>
+      <c r="C1807">
+        <v>64.983000000000004</v>
+      </c>
+      <c r="D1807">
+        <v>85.376000000000005</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
-        <v>1806</v>
+        <v>2002</v>
+      </c>
+      <c r="B1808">
+        <v>0.44271199999999999</v>
+      </c>
+      <c r="C1808">
+        <v>0.44</v>
+      </c>
+      <c r="D1808">
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1825" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1827" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1828" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1834" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1835" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1839" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1840" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1843" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1845" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1846" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1847" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1848" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1849" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1850" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1851" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1852" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1853" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1854" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1855" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1856" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1857" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1858" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1859" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1860" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1861" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1862" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1863" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1864" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1865" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1866" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1867" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1868" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1869" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1870" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1871" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1872" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1873" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1874" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1875" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1876" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1877" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1878" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1879" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1880" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1881" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1882" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1883" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1884" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1885" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1886" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1887" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1888" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1889" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1890" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1891" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1893" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1897" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1898" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1900" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1901" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1902" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1904" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1905" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1906" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1907" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1908" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1910" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1911" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1912" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1913" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1914" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1916" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1917" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1919" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1920" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1922" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1923" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1924" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1925" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1926" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1927" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1928" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1929" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1930" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1931" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1932" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1933" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1934" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1935" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1936" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1937" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1938" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1939" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1940" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1941" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1942" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1943" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1944" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1945" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1946" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1947" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1948" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1949" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1950" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1952" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1953" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1954" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1955" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1956" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1957" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1958" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1959" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1962" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1963" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1964" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1965" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1966" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1967" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1968" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1969" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1970" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1971" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1972" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1974" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1975" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1976" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1977" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1978" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1979" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1980" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1981" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1982" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1983" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1984" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1985" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1986" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1987" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1988" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1989" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1990" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1991" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1992" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1993" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1994" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1996" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1997" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1998" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1999" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="2000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2000" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="2001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2001" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="2002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2002" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/runtime.xlsx
+++ b/benchmark/runtime.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\libMultiRobotPlanning\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EBA7F4-8C23-4C03-BF06-6793A77D1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F03EDA7-C866-4920-BAB9-7D5F1354FC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="2005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="3006">
   <si>
     <t>map_8by8_obst12_agents10_ex0.yaml</t>
   </si>
@@ -6039,6 +6040,3010 @@
   </si>
   <si>
     <t>lib-mine-fibonacci_heap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents90_ex0.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents80_ex0.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents70_ex0.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents60_ex0.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents50_ex0.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents40_ex0.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents20_ex0.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents10_ex0.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex99.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex98.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex97.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex96.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex95.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex94.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex93.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex92.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex91.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex90.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex9.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex89.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex88.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex87.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex86.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex85.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex84.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex83.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex82.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex81.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex80.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex8.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex79.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex78.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex77.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex76.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex75.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex74.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex73.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex72.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex71.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex70.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex7.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex69.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex68.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex67.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex66.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex65.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex64.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex63.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex62.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex61.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex60.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex6.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex59.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex58.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex57.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex56.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex55.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex54.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex53.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex52.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex51.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex50.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex5.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex49.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex48.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex47.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex46.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex45.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex44.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex43.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex42.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex41.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex40.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex4.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex39.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex38.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex37.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex36.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex35.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex34.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex33.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex32.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex31.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex30.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex3.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex29.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex28.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex27.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex26.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex25.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex24.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex23.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex22.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex21.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex20.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex2.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex19.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex18.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex17.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex16.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex15.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex14.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex13.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex12.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex11.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex10.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex1.yaml</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents100_ex0.yaml</t>
+  </si>
+  <si>
+    <t>File Names</t>
+  </si>
+  <si>
+    <t>map_32by32_obst204_agents30_ex0.yaml</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6450,8 +9455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1795" workbookViewId="0">
-      <selection activeCell="C1809" sqref="C1809"/>
+    <sheetView tabSelected="1" topLeftCell="A1797" workbookViewId="0">
+      <selection activeCell="B1809" sqref="B1809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -16552,4 +19557,5064 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78205F49-85F5-426D-98DA-071188738067}">
+  <dimension ref="A1:G1001"/>
+  <sheetViews>
+    <sheetView topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E303" sqref="E303"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2903</v>
+      </c>
+      <c r="E102">
+        <v>2.08045E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E103">
+        <v>4.7983499999999998E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E104">
+        <v>3.4621800000000001E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E202">
+        <v>11.3813</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E203">
+        <v>0.216331</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E204">
+        <v>3.7567900000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>2800</v>
+      </c>
+      <c r="E205">
+        <v>46.483400000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E302">
+        <v>3.6274600000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/benchmark/runtime.xlsx
+++ b/benchmark/runtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\libMultiRobotPlanning\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F03EDA7-C866-4920-BAB9-7D5F1354FC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E67E498-317A-40C4-A77F-52DD4AB5C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="3006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="3007">
   <si>
     <t>map_8by8_obst12_agents10_ex0.yaml</t>
   </si>
@@ -9044,6 +9044,10 @@
   </si>
   <si>
     <t>map_32by32_obst204_agents30_ex0.yaml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算不出来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9455,7 +9459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1797" workbookViewId="0">
+    <sheetView topLeftCell="A1797" workbookViewId="0">
       <selection activeCell="B1809" sqref="B1809"/>
     </sheetView>
   </sheetViews>
@@ -19563,8 +19567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78205F49-85F5-426D-98DA-071188738067}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E303" sqref="E303"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -21121,6 +21125,9 @@
       <c r="A303" t="s">
         <v>2703</v>
       </c>
+      <c r="E303" t="s">
+        <v>3006</v>
+      </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">

--- a/benchmark/runtime.xlsx
+++ b/benchmark/runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\libMultiRobotPlanning\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E67E498-317A-40C4-A77F-52DD4AB5C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209DBBD5-7AA5-4707-AC12-BCD07F7B43CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="3007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="3006">
   <si>
     <t>map_8by8_obst12_agents10_ex0.yaml</t>
   </si>
@@ -9044,10 +9044,6 @@
   </si>
   <si>
     <t>map_32by32_obst204_agents30_ex0.yaml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>算不出来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -21125,8 +21121,8 @@
       <c r="A303" t="s">
         <v>2703</v>
       </c>
-      <c r="E303" t="s">
-        <v>3006</v>
+      <c r="E303">
+        <v>8052.04</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">

--- a/benchmark/runtime.xlsx
+++ b/benchmark/runtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\libMultiRobotPlanning\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209DBBD5-7AA5-4707-AC12-BCD07F7B43CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA5F34A-B1A5-4EF4-8846-BF8C9E4C0206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="3006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="3007">
   <si>
     <t>map_8by8_obst12_agents10_ex0.yaml</t>
   </si>
@@ -9044,6 +9044,10 @@
   </si>
   <si>
     <t>map_32by32_obst204_agents30_ex0.yaml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloriyo-mine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9453,10 +9457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2002"/>
+  <dimension ref="A1:E2002"/>
   <sheetViews>
-    <sheetView topLeftCell="A1797" workbookViewId="0">
-      <selection activeCell="B1809" sqref="B1809"/>
+    <sheetView tabSelected="1" topLeftCell="A1894" workbookViewId="0">
+      <selection activeCell="C1908" sqref="C1908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9464,10 +9468,11 @@
     <col min="1" max="1" width="38.109375" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2000</v>
       </c>
@@ -9480,78 +9485,81 @@
       <c r="D1" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -18448,57 +18456,57 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
         <v>1801</v>
       </c>
@@ -18511,8 +18519,11 @@
       <c r="D1803">
         <v>456.01100000000002</v>
       </c>
-    </row>
-    <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1803">
+        <v>338.66300000000001</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
         <v>1802</v>
       </c>
@@ -18525,8 +18536,11 @@
       <c r="D1804">
         <v>591.76599999999996</v>
       </c>
-    </row>
-    <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1804">
+        <v>2.7372000000000001</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
         <v>1803</v>
       </c>
@@ -18539,8 +18553,11 @@
       <c r="D1805">
         <v>0.434</v>
       </c>
-    </row>
-    <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1805">
+        <v>8.6759000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
         <v>1804</v>
       </c>
@@ -18553,8 +18570,11 @@
       <c r="D1806">
         <v>15.706300000000001</v>
       </c>
-    </row>
-    <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1806">
+        <v>8.6440400000000004</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
         <v>1805</v>
       </c>
@@ -18567,8 +18587,11 @@
       <c r="D1807">
         <v>85.376000000000005</v>
       </c>
-    </row>
-    <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1807">
+        <v>3.00935</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
         <v>2002</v>
       </c>
@@ -18581,83 +18604,92 @@
       <c r="D1808">
         <v>0.65100000000000002</v>
       </c>
-    </row>
-    <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E1808">
+        <v>0.114563</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1809">
+        <v>9.4120000000000002E-3</v>
+      </c>
+      <c r="E1809">
+        <v>2.5256000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="1813" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="1815" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="1823" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
         <v>1821</v>
       </c>
@@ -18982,162 +19014,186 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1889" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1890" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1891" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1893" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1897" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="1898" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1898" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="1899" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1900" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1901" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1902" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1904" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1904">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="E1904">
+        <v>1.64977</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1905" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1905">
+        <v>18.297000000000001</v>
+      </c>
+      <c r="E1905">
+        <v>1023.81</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1906" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1906">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E1906">
+        <v>3.3174000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1907" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1907">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="E1907">
+        <v>0.22248699999999999</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1908" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1910" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1911" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1912" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1913" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1914" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1916" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1917" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1918" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1919" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1920" t="s">
         <v>1917</v>
       </c>
@@ -19563,7 +19619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78205F49-85F5-426D-98DA-071188738067}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+    <sheetView topLeftCell="A286" workbookViewId="0">
       <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>

--- a/benchmark/runtime.xlsx
+++ b/benchmark/runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\libMultiRobotPlanning\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA5F34A-B1A5-4EF4-8846-BF8C9E4C0206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FE3FF-2341-4DB4-AB9C-E819D9465C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="3007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="3008">
   <si>
     <t>map_8by8_obst12_agents10_ex0.yaml</t>
   </si>
@@ -9048,6 +9048,10 @@
   </si>
   <si>
     <t>gloriyo-mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h算不出来程序被kill了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9460,7 +9464,7 @@
   <dimension ref="A1:E2002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1894" workbookViewId="0">
-      <selection activeCell="C1908" sqref="C1908"/>
+      <selection activeCell="E1910" sqref="E1910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -19137,10 +19141,22 @@
       <c r="A1908" t="s">
         <v>1905</v>
       </c>
+      <c r="C1908" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E1908">
+        <v>0.28599000000000002</v>
+      </c>
     </row>
     <row r="1909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
         <v>1906</v>
+      </c>
+      <c r="C1909">
+        <v>57.531999999999996</v>
+      </c>
+      <c r="E1909">
+        <v>39.853900000000003</v>
       </c>
     </row>
     <row r="1910" spans="1:5" x14ac:dyDescent="0.25">

--- a/benchmark/runtime.xlsx
+++ b/benchmark/runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\libMultiRobotPlanning\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FE3FF-2341-4DB4-AB9C-E819D9465C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7D67E-332C-4A31-9BA2-BA1F97BBA8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="3008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="3010">
   <si>
     <t>map_8by8_obst12_agents10_ex0.yaml</t>
   </si>
@@ -9052,6 +9052,14 @@
   </si>
   <si>
     <t>1.5h算不出来程序被kill了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloriyo-mine-set_context</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9059,7 +9067,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9077,6 +9085,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -9118,9 +9134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -9461,109 +9480,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2002"/>
+  <dimension ref="A1:G2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1894" workbookViewId="0">
-      <selection activeCell="E1910" sqref="E1910"/>
+    <sheetView tabSelected="1" topLeftCell="A1791" workbookViewId="0">
+      <selection activeCell="B1804" sqref="B1804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2000</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C1" t="s">
         <v>2001</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2003</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2004</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3006</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -17488,171 +17515,171 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1601" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1602" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="1604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1604" t="s">
         <v>1602</v>
       </c>
-      <c r="B1604">
+      <c r="C1604">
         <v>0.198824</v>
       </c>
     </row>
-    <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1605" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1606" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1607" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1608" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1609" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="1610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1610" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1611" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="1613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1613" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="1614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1614" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1615" t="s">
         <v>1613</v>
       </c>
-      <c r="B1615">
+      <c r="C1615">
         <v>3.9553899999999996E-3</v>
       </c>
     </row>
-    <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1616" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1617" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1618" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="1619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1619" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="1620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1620" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="1621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1621" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="1622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1622" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1623" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1624" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1625" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1626" t="s">
         <v>1624</v>
       </c>
-      <c r="B1626">
+      <c r="C1626">
         <v>4.3862299999999996E-3</v>
       </c>
     </row>
-    <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1627" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1628" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="1629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1629" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1630" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1631" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="1632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1632" t="s">
         <v>1630</v>
       </c>
@@ -17977,85 +18004,85 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="1701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
         <v>1701</v>
       </c>
-      <c r="B1703">
+      <c r="C1703">
         <v>2.9130900000000001E-2</v>
       </c>
     </row>
-    <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
         <v>1710</v>
       </c>
@@ -18460,240 +18487,273 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="1793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="1794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="1795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="1796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="1797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="1798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="1799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="1800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="1802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="1803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
         <v>1801</v>
       </c>
-      <c r="B1803">
+      <c r="C1803">
         <v>659.81</v>
       </c>
-      <c r="C1803">
+      <c r="D1803">
         <v>662.077</v>
       </c>
-      <c r="D1803">
+      <c r="E1803">
         <v>456.01100000000002</v>
       </c>
-      <c r="E1803">
+      <c r="F1803">
         <v>338.66300000000001</v>
       </c>
-    </row>
-    <row r="1804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1803">
+        <v>325.96100000000001</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
         <v>1802</v>
       </c>
-      <c r="B1804">
+      <c r="C1804">
         <v>369.29199999999997</v>
       </c>
-      <c r="C1804">
+      <c r="D1804">
         <v>368.40300000000002</v>
       </c>
-      <c r="D1804">
+      <c r="E1804">
         <v>591.76599999999996</v>
       </c>
-      <c r="E1804">
+      <c r="F1804">
         <v>2.7372000000000001</v>
       </c>
-    </row>
-    <row r="1805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1804">
+        <v>2.6590600000000002</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
         <v>1803</v>
       </c>
       <c r="B1805">
+        <v>59</v>
+      </c>
+      <c r="C1805">
         <v>0.277785</v>
       </c>
-      <c r="C1805">
+      <c r="D1805">
         <v>0.27700000000000002</v>
       </c>
-      <c r="D1805">
+      <c r="E1805">
         <v>0.434</v>
       </c>
-      <c r="E1805">
+      <c r="F1805">
         <v>8.6759000000000003E-2</v>
       </c>
-    </row>
-    <row r="1806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1805">
+        <v>8.7472999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
         <v>1804</v>
       </c>
       <c r="B1806">
+        <v>56</v>
+      </c>
+      <c r="C1806">
         <v>15.747</v>
       </c>
-      <c r="C1806">
+      <c r="D1806">
         <v>15.744</v>
       </c>
-      <c r="D1806">
+      <c r="E1806">
         <v>15.706300000000001</v>
       </c>
-      <c r="E1806">
+      <c r="F1806">
         <v>8.6440400000000004</v>
       </c>
-    </row>
-    <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1806">
+        <v>8.3489100000000001</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
         <v>1805</v>
       </c>
       <c r="B1807">
+        <v>60</v>
+      </c>
+      <c r="C1807">
         <v>65.029700000000005</v>
       </c>
-      <c r="C1807">
+      <c r="D1807">
         <v>64.983000000000004</v>
       </c>
-      <c r="D1807">
+      <c r="E1807">
         <v>85.376000000000005</v>
       </c>
-      <c r="E1807">
+      <c r="F1807">
         <v>3.00935</v>
       </c>
-    </row>
-    <row r="1808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1807">
+        <v>2.9613399999999999</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
         <v>2002</v>
       </c>
       <c r="B1808">
+        <v>67</v>
+      </c>
+      <c r="C1808">
         <v>0.44271199999999999</v>
       </c>
-      <c r="C1808">
+      <c r="D1808">
         <v>0.44</v>
       </c>
-      <c r="D1808">
+      <c r="E1808">
         <v>0.65100000000000002</v>
       </c>
-      <c r="E1808">
+      <c r="F1808">
         <v>0.114563</v>
       </c>
-    </row>
-    <row r="1809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1808">
+        <v>0.11154799999999999</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
         <v>1806</v>
       </c>
-      <c r="C1809">
+      <c r="B1809">
+        <v>44</v>
+      </c>
+      <c r="D1809">
         <v>9.4120000000000002E-3</v>
       </c>
-      <c r="E1809">
+      <c r="F1809">
         <v>2.5256000000000001E-2</v>
       </c>
     </row>
-    <row r="1810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="1811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="1812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="1813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="1814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="1815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="1816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="1817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="1818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="1819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="1820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="1821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="1822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="1823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="1824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
         <v>1821</v>
       </c>
@@ -19018,198 +19078,198 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="1889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1889" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="1890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1890" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="1891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1891" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="1892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="1893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1893" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="1894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="1895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="1896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="1897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1897" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="1898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1898" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="1899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="1900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1900" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="1901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1901" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="1902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1902" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="1903" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="1904" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1904" t="s">
         <v>1901</v>
       </c>
-      <c r="C1904">
+      <c r="D1904">
         <v>1.1919999999999999</v>
       </c>
-      <c r="E1904">
+      <c r="F1904">
         <v>1.64977</v>
       </c>
     </row>
-    <row r="1905" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1905" t="s">
         <v>1902</v>
       </c>
-      <c r="C1905">
+      <c r="D1905">
         <v>18.297000000000001</v>
       </c>
-      <c r="E1905">
+      <c r="F1905">
         <v>1023.81</v>
       </c>
     </row>
-    <row r="1906" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1906" t="s">
         <v>1903</v>
       </c>
-      <c r="C1906">
+      <c r="D1906">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E1906">
+      <c r="F1906">
         <v>3.3174000000000002E-2</v>
       </c>
     </row>
-    <row r="1907" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1907" t="s">
         <v>1904</v>
       </c>
-      <c r="C1907">
+      <c r="D1907">
         <v>0.39900000000000002</v>
       </c>
-      <c r="E1907">
+      <c r="F1907">
         <v>0.22248699999999999</v>
       </c>
     </row>
-    <row r="1908" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1908" t="s">
         <v>1905</v>
       </c>
-      <c r="C1908" t="s">
+      <c r="D1908" t="s">
         <v>3007</v>
       </c>
-      <c r="E1908">
+      <c r="F1908">
         <v>0.28599000000000002</v>
       </c>
     </row>
-    <row r="1909" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
         <v>1906</v>
       </c>
-      <c r="C1909">
+      <c r="D1909">
         <v>57.531999999999996</v>
       </c>
-      <c r="E1909">
+      <c r="F1909">
         <v>39.853900000000003</v>
       </c>
     </row>
-    <row r="1910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1910" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="1911" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1911" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="1912" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1912" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="1913" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1913" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="1914" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1914" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="1915" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="1916" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1916" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="1917" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1917" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="1918" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1918" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="1919" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1919" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1920" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1920" t="s">
         <v>1917</v>
       </c>

--- a/benchmark/runtime.xlsx
+++ b/benchmark/runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\libMultiRobotPlanning\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7D67E-332C-4A31-9BA2-BA1F97BBA8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF9DA29-CD02-4AB9-8778-52F9DF3B8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="3010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="3011">
   <si>
     <t>map_8by8_obst12_agents10_ex0.yaml</t>
   </si>
@@ -9060,6 +9060,10 @@
   </si>
   <si>
     <t>cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloriyo-mine-agent-constraint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9480,10 +9484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2002"/>
+  <dimension ref="A1:H2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1791" workbookViewId="0">
-      <selection activeCell="B1804" sqref="B1804"/>
+    <sheetView tabSelected="1" topLeftCell="A1789" workbookViewId="0">
+      <selection activeCell="H1809" sqref="H1809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9497,7 +9501,7 @@
     <col min="7" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2000</v>
       </c>
@@ -9519,78 +9523,81 @@
       <c r="G1" t="s">
         <v>3008</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -18487,57 +18494,57 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="1793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="1795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="1796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="1797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="1800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="1802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="1803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
         <v>1801</v>
       </c>
@@ -18556,8 +18563,11 @@
       <c r="G1803">
         <v>325.96100000000001</v>
       </c>
-    </row>
-    <row r="1804" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1803">
+        <v>317.03899999999999</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
         <v>1802</v>
       </c>
@@ -18576,8 +18586,11 @@
       <c r="G1804">
         <v>2.6590600000000002</v>
       </c>
-    </row>
-    <row r="1805" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1804">
+        <v>2.6042800000000002</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
         <v>1803</v>
       </c>
@@ -18599,8 +18612,11 @@
       <c r="G1805">
         <v>8.7472999999999995E-2</v>
       </c>
-    </row>
-    <row r="1806" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1805">
+        <v>8.2693000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
         <v>1804</v>
       </c>
@@ -18622,8 +18638,11 @@
       <c r="G1806">
         <v>8.3489100000000001</v>
       </c>
-    </row>
-    <row r="1807" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1806">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
         <v>1805</v>
       </c>
@@ -18645,8 +18664,11 @@
       <c r="G1807">
         <v>2.9613399999999999</v>
       </c>
-    </row>
-    <row r="1808" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1807">
+        <v>2.9404699999999999</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
         <v>2002</v>
       </c>
@@ -18667,6 +18689,9 @@
       </c>
       <c r="G1808">
         <v>0.11154799999999999</v>
+      </c>
+      <c r="H1808">
+        <v>0.10934000000000001</v>
       </c>
     </row>
     <row r="1809" spans="1:6" x14ac:dyDescent="0.25">

--- a/benchmark/runtime.xlsx
+++ b/benchmark/runtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\libMultiRobotPlanning\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF9DA29-CD02-4AB9-8778-52F9DF3B8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6E187A-B688-4353-8370-DFE14750A978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9490,15 +9490,15 @@
       <selection activeCell="H1809" sqref="H1809"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="38.08984375" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -19724,11 +19724,11 @@
       <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
